--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yazhinigopal/Desktop/DAV Bootcamp/17 Supervised Machine Learning/Challenge/Credit_Risk_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A801013E-9940-6E49-88E0-DEEC9DA8B524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586007BE-8A7A-FF45-84F8-9D4D5C2DC16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5E7D316C-21FD-2D49-BFB8-97EF866BCC7B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{5E7D316C-21FD-2D49-BFB8-97EF866BCC7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Accuracy</t>
   </si>
@@ -101,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -150,11 +150,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -164,11 +201,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -278,7 +327,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -960,7 +1009,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2982,7 +3031,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2994,32 +3043,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2" s="5"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3196,6 +3237,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
